--- a/biology/Zoologie/Démoustication/Démoustication.xlsx
+++ b/biology/Zoologie/Démoustication/Démoustication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La démoustication désigne une stratégie  visant à éliminer des moustiques qui piquent l'Homme ou les animaux.
 C'est une des formes de désinsectisation.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Modalité de la démoustication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette stratégie peut par exemple s'appuyer sur :
 la dispersion, éventuellement aérienne, de produits chimiques insecticides ou de biopesticides (avec le risque d'empoisonner des espèces non-cibles, voire certains prédateurs naturels des moustiques), et avec le risque de favoriser l'apparition de phénomènes de résistances aux insecticides ;
-l'introduction et la protection de prédateurs des moustiques (chiroptères, oiseaux insectivores, poissons insectivores dont Gambusia affinis[1]) ;
+l'introduction et la protection de prédateurs des moustiques (chiroptères, oiseaux insectivores, poissons insectivores dont Gambusia affinis) ;
 la suppression d'habitats vitaux ou important pour ces espèces (gîtes larvaires en particulier) ;
 la destruction des zones humides (dulcaquicoles, passagèrement saumâtres ou de mangroves) par le drainage et/ou le remblai (autrefois souvent pratiquée) ; c'est une stratégie qui s'est avérée parfois inefficace, et généralement très destructrice de biodiversité et de services écosystémiques.</t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Alternatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des recherches récentes laissent penser qu'il serait peut être possible de protéger les habitations ou certains lieux par diverses alternatives : 
-en diffusant des molécules capables d'inhiber la capacité du moustique à détecter ses proies[2],
-en imitant des odeurs qui l'attirent, de manière à l'attirer dans des pièges[2] (de type "Smart Bam[3]", émettant du CO2 et de l'octénol, testés en Camargue d’avril à novembre 2016[4] avec une diminution du nombre moyen de tentatives de piqûres/10 min de 13,7 à 4,15 au Sambuc)[5].
-en le rendant « aveugle » aux odeurs (traces d'ecténol et/ou de CO2[2]) grâce à certaines molécules diffusées dans son environnement.
+en diffusant des molécules capables d'inhiber la capacité du moustique à détecter ses proies,
+en imitant des odeurs qui l'attirent, de manière à l'attirer dans des pièges (de type "Smart Bam", émettant du CO2 et de l'octénol, testés en Camargue d’avril à novembre 2016 avec une diminution du nombre moyen de tentatives de piqûres/10 min de 13,7 à 4,15 au Sambuc).
+en le rendant « aveugle » aux odeurs (traces d'ecténol et/ou de CO2) grâce à certaines molécules diffusées dans son environnement.
 Reste à vérifier que ces molécules ne posent pas de problèmes sanitaires et environnementaux.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit généralement de mesures de prévention visant à éviter ou ralentir la propagation de maladies telles que le paludisme, la dengue ou le chikungunya.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Acteurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acteurs de la démoustication peuvent être publics ou privés. Par exemple, en France, certaines collectivités publiques s’appuient sur l'Entente interdépartementale pour la démoustication du littoral méditerranéen.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9moustication</t>
+          <t>Démoustication</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,6 +664,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
